--- a/com.ShopperStackAutomationFramework/src/test/resources/TestData1.xlsx
+++ b/com.ShopperStackAutomationFramework/src/test/resources/TestData1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\git\WPEM8\com.ShopperStackAutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F77E022-EF66-425A-ABE4-38E42B83E165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BC3B16-CC04-46D2-8E9B-87903B45259D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2F93E4D-E119-4A6B-A27A-B297024888D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E2F93E4D-E119-4A6B-A27A-B297024888D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +38,36 @@
   </si>
   <si>
     <t>Password@123</t>
+  </si>
+  <si>
+    <t>Aman@gmail.com</t>
+  </si>
+  <si>
+    <t>Aman@123</t>
+  </si>
+  <si>
+    <t>Aman123@gmail.com</t>
+  </si>
+  <si>
+    <t>Aman@321</t>
+  </si>
+  <si>
+    <t>Aman789@gmail.com</t>
+  </si>
+  <si>
+    <t>Aman@8520</t>
+  </si>
+  <si>
+    <t>Aa@gmail.com</t>
+  </si>
+  <si>
+    <t>Amna@153145</t>
+  </si>
+  <si>
+    <t>Amsd@gmail.com</t>
+  </si>
+  <si>
+    <t>kjsdnc@123</t>
   </si>
 </sst>
 </file>
@@ -423,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC5933A-D7E5-4441-AE4B-48AAB4AD5C45}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -456,4 +487,83 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EDE7D-DCB9-4DE9-9D97-F3AA5CF97989}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A43CA9CE-BFAE-4F95-A287-55F35E76F415}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{89609729-5C0A-45EB-BA7F-C19E351D0DEE}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{13A93E53-2566-4AF5-8A96-1662E5823A81}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{B6BD5DCD-9350-4776-A052-26EA11B47121}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{650C5D29-2652-48BA-9D14-03C4C70FF79B}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{24BF4701-2B8A-46B5-969D-2D7C437A2927}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{E958077F-E558-4602-AEBE-89588C87D9FF}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{C3EBD296-0B64-420D-9A4F-D5FAC5B531B4}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{CBFF757B-151B-4B4B-B835-5FBF3ECAC35F}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{2A902D6A-A214-46E4-AF4E-5222CD2475B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>